--- a/course_project/data/df_pv_data_germany_fit-shifted.xlsx
+++ b/course_project/data/df_pv_data_germany_fit-shifted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779CE4F0-A441-403E-856A-5D039C8DBF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E43531-6622-432F-86DA-3D51E14ACD17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="41">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Installed_Cap_pc</t>
+  </si>
+  <si>
+    <t>share_RE</t>
+  </si>
+  <si>
+    <t>share_PV</t>
   </si>
 </sst>
 </file>
@@ -527,39 +533,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W476"/>
+  <dimension ref="A1:Y476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.109375" customWidth="1"/>
-    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -629,8 +634,14 @@
       <c r="W1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1992</v>
       </c>
@@ -707,7 +718,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1992</v>
       </c>
@@ -784,7 +795,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -861,7 +872,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1992</v>
       </c>
@@ -938,7 +949,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1992</v>
       </c>
@@ -1015,7 +1026,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1992</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1992</v>
       </c>
@@ -1169,7 +1180,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1992</v>
       </c>
@@ -1246,7 +1257,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1992</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1992</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1992</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1992</v>
       </c>
@@ -1554,7 +1565,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -1631,7 +1642,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -1708,7 +1719,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1992</v>
       </c>
@@ -8142,7 +8153,7 @@
         <v>5</v>
       </c>
       <c r="H99">
-        <f t="shared" ref="H99:H127" si="18">16.53*0.51</f>
+        <f t="shared" ref="H99:H113" si="18">16.53*0.51</f>
         <v>8.4303000000000008</v>
       </c>
       <c r="I99">
@@ -9438,7 +9449,7 @@
         <v>4.8</v>
       </c>
       <c r="H115">
-        <f t="shared" ref="H115:H143" si="19" xml:space="preserve"> 16.57*0.53</f>
+        <f t="shared" ref="H115:H129" si="19" xml:space="preserve"> 16.57*0.53</f>
         <v>8.7820999999999998</v>
       </c>
       <c r="I115">
@@ -10734,7 +10745,7 @@
         <v>4.5</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" ref="H131:H159" si="23">16.93*0.51</f>
+        <f t="shared" ref="H131:H145" si="23">16.93*0.51</f>
         <v>8.6342999999999996</v>
       </c>
       <c r="I131">
@@ -12030,7 +12041,7 @@
         <v>4.2</v>
       </c>
       <c r="H147">
-        <f t="shared" ref="H147:H175" si="30">17.28*0.51</f>
+        <f t="shared" ref="H147:H161" si="30">17.28*0.51</f>
         <v>8.8128000000000011</v>
       </c>
       <c r="I147">
@@ -13141,7 +13152,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2001</v>
       </c>
@@ -13222,7 +13233,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2002</v>
       </c>
@@ -13302,8 +13313,14 @@
       <c r="W162">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X162">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2002</v>
       </c>
@@ -13326,7 +13343,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H163">
-        <f t="shared" ref="H163:H191" si="31">17.21*0.51</f>
+        <f t="shared" ref="H163:H177" si="31">17.21*0.51</f>
         <v>8.7771000000000008</v>
       </c>
       <c r="I163">
@@ -13383,8 +13400,14 @@
       <c r="W163">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X163">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="Y163">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2002</v>
       </c>
@@ -13465,7 +13488,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2002</v>
       </c>
@@ -13546,7 +13569,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2002</v>
       </c>
@@ -13626,8 +13649,14 @@
       <c r="W166">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X166">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2002</v>
       </c>
@@ -13707,8 +13736,14 @@
       <c r="W167">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X167">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2002</v>
       </c>
@@ -13788,8 +13823,14 @@
       <c r="W168">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X168">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2002</v>
       </c>
@@ -13870,7 +13911,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2002</v>
       </c>
@@ -13951,7 +13992,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2002</v>
       </c>
@@ -14031,8 +14072,14 @@
       <c r="W171">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X171">
+        <v>0.03</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2002</v>
       </c>
@@ -14113,7 +14160,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2002</v>
       </c>
@@ -14194,7 +14241,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2002</v>
       </c>
@@ -14274,8 +14321,14 @@
       <c r="W174">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X174">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2002</v>
       </c>
@@ -14355,8 +14408,14 @@
       <c r="W175">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X175">
+        <v>0.109</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2002</v>
       </c>
@@ -14436,8 +14495,14 @@
       <c r="W176">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X176">
+        <v>0.107</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2002</v>
       </c>
@@ -14517,8 +14582,14 @@
       <c r="W177">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X177">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2003</v>
       </c>
@@ -14598,8 +14669,14 @@
       <c r="W178">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X178">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="Y178">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2003</v>
       </c>
@@ -14622,7 +14699,7 @@
         <v>3.1</v>
       </c>
       <c r="H179">
-        <f t="shared" ref="H179:H207" si="32">17.15*0.51</f>
+        <f t="shared" ref="H179:H193" si="32">17.15*0.51</f>
         <v>8.7464999999999993</v>
       </c>
       <c r="I179">
@@ -14679,8 +14756,14 @@
       <c r="W179">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X179">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Y179">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2003</v>
       </c>
@@ -14760,8 +14843,14 @@
       <c r="W180">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X180">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2003</v>
       </c>
@@ -14841,8 +14930,14 @@
       <c r="W181">
         <v>1.9400000000000001E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X181">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2003</v>
       </c>
@@ -14922,8 +15017,14 @@
       <c r="W182">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X182">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2003</v>
       </c>
@@ -15003,8 +15104,14 @@
       <c r="W183">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X183">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Y183">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2003</v>
       </c>
@@ -15084,8 +15191,14 @@
       <c r="W184">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X184">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y184">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2003</v>
       </c>
@@ -15165,8 +15278,14 @@
       <c r="W185">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X185">
+        <v>0.252</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2003</v>
       </c>
@@ -15246,8 +15365,14 @@
       <c r="W186">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X186">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2003</v>
       </c>
@@ -15327,8 +15452,14 @@
       <c r="W187">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X187">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2003</v>
       </c>
@@ -15408,8 +15539,11 @@
       <c r="W188">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X188">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2003</v>
       </c>
@@ -15489,8 +15623,14 @@
       <c r="W189">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X189">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2003</v>
       </c>
@@ -15570,8 +15710,14 @@
       <c r="W190">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X190">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2003</v>
       </c>
@@ -15651,8 +15797,14 @@
       <c r="W191">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X191">
+        <v>0.13699999999999998</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2003</v>
       </c>
@@ -15732,8 +15884,14 @@
       <c r="W192">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X192">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2003</v>
       </c>
@@ -15813,8 +15971,14 @@
       <c r="W193">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X193">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="Y193">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2004</v>
       </c>
@@ -15894,8 +16058,14 @@
       <c r="W194">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X194">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="Y194">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2004</v>
       </c>
@@ -15918,7 +16088,7 @@
         <v>3.1</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H223" si="36">16.79*0.51</f>
+        <f t="shared" ref="H195:H209" si="36">16.79*0.51</f>
         <v>8.5628999999999991</v>
       </c>
       <c r="I195">
@@ -15975,8 +16145,14 @@
       <c r="W195">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X195">
+        <v>0.19</v>
+      </c>
+      <c r="Y195">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2004</v>
       </c>
@@ -16056,8 +16232,14 @@
       <c r="W196">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X196">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2004</v>
       </c>
@@ -16137,8 +16319,14 @@
       <c r="W197">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X197">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2004</v>
       </c>
@@ -16218,8 +16406,14 @@
       <c r="W198">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X198">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2004</v>
       </c>
@@ -16299,8 +16493,14 @@
       <c r="W199">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X199">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Y199">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2004</v>
       </c>
@@ -16380,8 +16580,14 @@
       <c r="W200">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X200">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Y200">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2004</v>
       </c>
@@ -16461,8 +16667,14 @@
       <c r="W201">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X201">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Y201">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2004</v>
       </c>
@@ -16542,8 +16754,14 @@
       <c r="W202">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X202">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2004</v>
       </c>
@@ -16623,8 +16841,14 @@
       <c r="W203">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X203">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2004</v>
       </c>
@@ -16704,8 +16928,14 @@
       <c r="W204">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X204">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y204">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2004</v>
       </c>
@@ -16785,8 +17015,14 @@
       <c r="W205">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X205">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2004</v>
       </c>
@@ -16866,8 +17102,14 @@
       <c r="W206">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X206">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2004</v>
       </c>
@@ -16947,8 +17189,14 @@
       <c r="W207">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X207">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2004</v>
       </c>
@@ -17028,8 +17276,14 @@
       <c r="W208">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X208">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2004</v>
       </c>
@@ -17109,8 +17363,14 @@
       <c r="W209">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X209">
+        <v>0.26</v>
+      </c>
+      <c r="Y209">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2005</v>
       </c>
@@ -17190,8 +17450,14 @@
       <c r="W210">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X210">
+        <v>0.1</v>
+      </c>
+      <c r="Y210">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2005</v>
       </c>
@@ -17214,7 +17480,7 @@
         <v>3.2</v>
       </c>
       <c r="H211">
-        <f t="shared" ref="H211:H239" si="43">16.52*0.51</f>
+        <f t="shared" ref="H211:H225" si="43">16.52*0.51</f>
         <v>8.4252000000000002</v>
       </c>
       <c r="I211">
@@ -17271,8 +17537,14 @@
       <c r="W211">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X211">
+        <v>0.18</v>
+      </c>
+      <c r="Y211">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2005</v>
       </c>
@@ -17352,8 +17624,14 @@
       <c r="W212">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X212">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2005</v>
       </c>
@@ -17433,8 +17711,14 @@
       <c r="W213">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X213">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2005</v>
       </c>
@@ -17514,8 +17798,14 @@
       <c r="W214">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X214">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2005</v>
       </c>
@@ -17595,8 +17885,14 @@
       <c r="W215">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X215">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Y215">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2005</v>
       </c>
@@ -17676,8 +17972,14 @@
       <c r="W216">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X216">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="Y216">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2005</v>
       </c>
@@ -17757,8 +18059,14 @@
       <c r="W217">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X217">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Y217">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2005</v>
       </c>
@@ -17838,8 +18146,14 @@
       <c r="W218">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X218">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Y218">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2005</v>
       </c>
@@ -17919,8 +18233,14 @@
       <c r="W219">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X219">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Y219">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2005</v>
       </c>
@@ -18000,8 +18320,14 @@
       <c r="W220">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X220">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Y220">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2005</v>
       </c>
@@ -18081,8 +18407,14 @@
       <c r="W221">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X221">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="Y221">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2005</v>
       </c>
@@ -18162,8 +18494,14 @@
       <c r="W222">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X222">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2005</v>
       </c>
@@ -18243,8 +18581,14 @@
       <c r="W223">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X223">
+        <v>0.192</v>
+      </c>
+      <c r="Y223">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2005</v>
       </c>
@@ -18324,8 +18668,14 @@
       <c r="W224">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X224">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="Y224">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2005</v>
       </c>
@@ -18405,8 +18755,14 @@
       <c r="W225">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X225">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Y225">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -18486,8 +18842,14 @@
       <c r="W226">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X226">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="Y226">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -18510,7 +18872,7 @@
         <v>3.3</v>
       </c>
       <c r="H227">
-        <f t="shared" ref="H227:H287" si="44">99*0.51</f>
+        <f t="shared" ref="H227:H257" si="44">99*0.51</f>
         <v>50.49</v>
       </c>
       <c r="I227">
@@ -18567,8 +18929,14 @@
       <c r="W227">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X227">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="Y227">
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -18648,8 +19016,14 @@
       <c r="W228">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X228">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -18729,8 +19103,14 @@
       <c r="W229">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X229">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -18810,8 +19190,14 @@
       <c r="W230">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X230">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -18891,8 +19277,14 @@
       <c r="W231">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X231">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="Y231">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -18972,8 +19364,14 @@
       <c r="W232">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X232">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Y232">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -19054,7 +19452,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2006</v>
       </c>
@@ -19134,8 +19532,14 @@
       <c r="W234">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X234">
+        <v>0.161</v>
+      </c>
+      <c r="Y234">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2006</v>
       </c>
@@ -19215,8 +19619,14 @@
       <c r="W235">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X235">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="Y235">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2006</v>
       </c>
@@ -19296,8 +19706,14 @@
       <c r="W236">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X236">
+        <v>0.214</v>
+      </c>
+      <c r="Y236">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2006</v>
       </c>
@@ -19377,8 +19793,14 @@
       <c r="W237">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X237">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="Y237">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2006</v>
       </c>
@@ -19458,8 +19880,14 @@
       <c r="W238">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X238">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="Y238">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2006</v>
       </c>
@@ -19539,8 +19967,14 @@
       <c r="W239">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X239">
+        <v>0.222</v>
+      </c>
+      <c r="Y239">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2006</v>
       </c>
@@ -19620,8 +20054,14 @@
       <c r="W240">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X240">
+        <v>0.11800000000000001</v>
+      </c>
+      <c r="Y240">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2006</v>
       </c>
@@ -19701,8 +20141,14 @@
       <c r="W241">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X241">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="Y241">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2007</v>
       </c>
@@ -19782,8 +20228,14 @@
       <c r="W242">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X242">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="Y242">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2007</v>
       </c>
@@ -19863,8 +20315,14 @@
       <c r="W243">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X243">
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="Y243">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2007</v>
       </c>
@@ -19944,8 +20402,14 @@
       <c r="W244">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X244">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="Y244">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2007</v>
       </c>
@@ -20025,8 +20489,14 @@
       <c r="W245">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X245">
+        <v>0.17</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2007</v>
       </c>
@@ -20106,8 +20576,14 @@
       <c r="W246">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X246">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2007</v>
       </c>
@@ -20187,8 +20663,14 @@
       <c r="W247">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X247">
+        <v>0.161</v>
+      </c>
+      <c r="Y247">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2007</v>
       </c>
@@ -20268,8 +20750,14 @@
       <c r="W248">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X248">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y248">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2007</v>
       </c>
@@ -20349,8 +20837,14 @@
       <c r="W249">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X249">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="Y249">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2007</v>
       </c>
@@ -20430,8 +20924,14 @@
       <c r="W250">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X250">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y250">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2007</v>
       </c>
@@ -20511,8 +21011,14 @@
       <c r="W251">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X251">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y251">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2007</v>
       </c>
@@ -20592,8 +21098,14 @@
       <c r="W252">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X252">
+        <v>0.249</v>
+      </c>
+      <c r="Y252">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2007</v>
       </c>
@@ -20673,8 +21185,14 @@
       <c r="W253">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X253">
+        <v>0.04</v>
+      </c>
+      <c r="Y253">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2007</v>
       </c>
@@ -20754,8 +21272,14 @@
       <c r="W254">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X254">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Y254">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2007</v>
       </c>
@@ -20835,8 +21359,14 @@
       <c r="W255">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X255">
+        <v>0.307</v>
+      </c>
+      <c r="Y255">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2007</v>
       </c>
@@ -20916,8 +21446,14 @@
       <c r="W256">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X256">
+        <v>0.19</v>
+      </c>
+      <c r="Y256">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2007</v>
       </c>
@@ -20997,8 +21533,14 @@
       <c r="W257">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X257">
+        <v>0.376</v>
+      </c>
+      <c r="Y257">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2008</v>
       </c>
@@ -21077,8 +21619,14 @@
       <c r="W258">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X258">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Y258">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2008</v>
       </c>
@@ -21157,8 +21705,14 @@
       <c r="W259">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X259">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Y259">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2008</v>
       </c>
@@ -21237,8 +21791,11 @@
       <c r="W260">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X260">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2008</v>
       </c>
@@ -21317,8 +21874,14 @@
       <c r="W261">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X261">
+        <v>0.17</v>
+      </c>
+      <c r="Y261">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2008</v>
       </c>
@@ -21397,8 +21960,14 @@
       <c r="W262">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X262">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2008</v>
       </c>
@@ -21477,8 +22046,14 @@
       <c r="W263">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X263">
+        <v>0.17</v>
+      </c>
+      <c r="Y263">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2008</v>
       </c>
@@ -21557,8 +22132,14 @@
       <c r="W264">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X264">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Y264">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2008</v>
       </c>
@@ -21637,8 +22218,14 @@
       <c r="W265">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X265">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="Y265">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2008</v>
       </c>
@@ -21717,8 +22304,14 @@
       <c r="W266">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X266">
+        <v>0.222</v>
+      </c>
+      <c r="Y266">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2008</v>
       </c>
@@ -21797,8 +22390,14 @@
       <c r="W267">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X267">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="Y267">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2008</v>
       </c>
@@ -21877,8 +22476,14 @@
       <c r="W268">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X268">
+        <v>0.23800000000000002</v>
+      </c>
+      <c r="Y268">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2008</v>
       </c>
@@ -21957,8 +22562,14 @@
       <c r="W269">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X269">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Y269">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2008</v>
       </c>
@@ -22037,8 +22648,14 @@
       <c r="W270">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X270">
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="Y270">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2008</v>
       </c>
@@ -22117,8 +22734,14 @@
       <c r="W271">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X271">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="Y271">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2008</v>
       </c>
@@ -22197,8 +22820,14 @@
       <c r="W272">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X272">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Y272">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2008</v>
       </c>
@@ -22277,8 +22906,14 @@
       <c r="W273">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X273">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="Y273">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2009</v>
       </c>
@@ -22357,8 +22992,14 @@
       <c r="W274">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X274">
+        <v>0.15</v>
+      </c>
+      <c r="Y274">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2009</v>
       </c>
@@ -22437,8 +23078,14 @@
       <c r="W275">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X275">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="Y275">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2009</v>
       </c>
@@ -22517,8 +23164,11 @@
       <c r="W276">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X276">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2009</v>
       </c>
@@ -22597,8 +23247,14 @@
       <c r="W277">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X277">
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="Y277">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2009</v>
       </c>
@@ -22677,8 +23333,14 @@
       <c r="W278">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X278">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2009</v>
       </c>
@@ -22757,8 +23419,14 @@
       <c r="W279">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X279">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="Y279">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2009</v>
       </c>
@@ -22837,8 +23505,14 @@
       <c r="W280">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X280">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="Y280">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2009</v>
       </c>
@@ -22917,8 +23591,14 @@
       <c r="W281">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X281">
+        <v>0.503</v>
+      </c>
+      <c r="Y281">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2009</v>
       </c>
@@ -22997,8 +23677,14 @@
       <c r="W282">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X282">
+        <v>0.217</v>
+      </c>
+      <c r="Y282">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2009</v>
       </c>
@@ -23077,8 +23763,14 @@
       <c r="W283">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X283">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="Y283">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2009</v>
       </c>
@@ -23157,8 +23849,14 @@
       <c r="W284">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X284">
+        <v>0.253</v>
+      </c>
+      <c r="Y284">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2009</v>
       </c>
@@ -23237,8 +23935,14 @@
       <c r="W285">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X285">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="Y285">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2009</v>
       </c>
@@ -23317,8 +24021,14 @@
       <c r="W286">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X286">
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="Y286">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2009</v>
       </c>
@@ -23397,8 +24107,14 @@
       <c r="W287">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X287">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Y287">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2009</v>
       </c>
@@ -23477,8 +24193,14 @@
       <c r="W288">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X288">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Y288">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2009</v>
       </c>
@@ -23557,8 +24279,14 @@
       <c r="W289">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X289">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Y289">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2010</v>
       </c>
@@ -23637,8 +24365,14 @@
       <c r="W290">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X290">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Y290">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2010</v>
       </c>
@@ -23717,8 +24451,14 @@
       <c r="W291">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X291">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Y291">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2010</v>
       </c>
@@ -23797,8 +24537,14 @@
       <c r="W292">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X292">
+        <v>0.04</v>
+      </c>
+      <c r="Y292">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2010</v>
       </c>
@@ -23877,8 +24623,14 @@
       <c r="W293">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X293">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="Y293">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2010</v>
       </c>
@@ -23957,8 +24709,14 @@
       <c r="W294">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X294">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Y294">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2010</v>
       </c>
@@ -24037,8 +24795,14 @@
       <c r="W295">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X295">
+        <v>0.128</v>
+      </c>
+      <c r="Y295">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2010</v>
       </c>
@@ -24117,8 +24881,14 @@
       <c r="W296">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X296">
+        <v>0.107</v>
+      </c>
+      <c r="Y296">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2010</v>
       </c>
@@ -24197,8 +24967,14 @@
       <c r="W297">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X297">
+        <v>0.46</v>
+      </c>
+      <c r="Y297">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2010</v>
       </c>
@@ -24277,8 +25053,14 @@
       <c r="W298">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X298">
+        <v>0.217</v>
+      </c>
+      <c r="Y298">
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2010</v>
       </c>
@@ -24357,8 +25139,14 @@
       <c r="W299">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X299">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Y299">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2010</v>
       </c>
@@ -24437,8 +25225,14 @@
       <c r="W300">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X300">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Y300">
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2010</v>
       </c>
@@ -24517,8 +25311,14 @@
       <c r="W301">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X301">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="Y301">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2010</v>
       </c>
@@ -24597,8 +25397,14 @@
       <c r="W302">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X302">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Y302">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2010</v>
       </c>
@@ -24677,8 +25483,14 @@
       <c r="W303">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X303">
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="Y303">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2010</v>
       </c>
@@ -24757,8 +25569,14 @@
       <c r="W304">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X304">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y304">
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2010</v>
       </c>
@@ -24837,8 +25655,14 @@
       <c r="W305">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X305">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="Y305">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2011</v>
       </c>
@@ -24917,8 +25741,14 @@
       <c r="W306">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X306">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="Y306">
+        <v>5.5999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2011</v>
       </c>
@@ -24997,8 +25827,14 @@
       <c r="W307">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X307">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Y307">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2011</v>
       </c>
@@ -25077,8 +25913,14 @@
       <c r="W308">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X308">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Y308">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2011</v>
       </c>
@@ -25157,8 +25999,14 @@
       <c r="W309">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X309">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Y309">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2011</v>
       </c>
@@ -25237,8 +26085,14 @@
       <c r="W310">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X310">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y310">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2011</v>
       </c>
@@ -25317,8 +26171,14 @@
       <c r="W311">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X311">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="Y311">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2011</v>
       </c>
@@ -25397,8 +26257,14 @@
       <c r="W312">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X312">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="Y312">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2011</v>
       </c>
@@ -25477,8 +26343,14 @@
       <c r="W313">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X313">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="Y313">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2011</v>
       </c>
@@ -25557,8 +26429,14 @@
       <c r="W314">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X314">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y314">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2011</v>
       </c>
@@ -25637,8 +26515,14 @@
       <c r="W315">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X315">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="Y315">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2011</v>
       </c>
@@ -25717,8 +26601,14 @@
       <c r="W316">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X316">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Y316">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2011</v>
       </c>
@@ -25797,8 +26687,14 @@
       <c r="W317">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X317">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Y317">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2011</v>
       </c>
@@ -25877,8 +26773,14 @@
       <c r="W318">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X318">
+        <v>0.107</v>
+      </c>
+      <c r="Y318">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2011</v>
       </c>
@@ -25957,8 +26859,14 @@
       <c r="W319">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X319">
+        <v>0.39</v>
+      </c>
+      <c r="Y319">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2011</v>
       </c>
@@ -26037,8 +26945,14 @@
       <c r="W320">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X320">
+        <v>0.36700000000000005</v>
+      </c>
+      <c r="Y320">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2011</v>
       </c>
@@ -26117,8 +27031,14 @@
       <c r="W321">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X321">
+        <v>0.47</v>
+      </c>
+      <c r="Y321">
+        <v>4.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2012</v>
       </c>
@@ -26197,8 +27117,14 @@
       <c r="W322">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X322">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Y322">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2012</v>
       </c>
@@ -26277,8 +27203,14 @@
       <c r="W323">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X323">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Y323">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2012</v>
       </c>
@@ -26357,8 +27289,14 @@
       <c r="W324">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X324">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Y324">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2012</v>
       </c>
@@ -26437,8 +27375,14 @@
       <c r="W325">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X325">
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="Y325">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2012</v>
       </c>
@@ -26517,8 +27461,14 @@
       <c r="W326">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X326">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Y326">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2012</v>
       </c>
@@ -26597,8 +27547,14 @@
       <c r="W327">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X327">
+        <v>0.161</v>
+      </c>
+      <c r="Y327">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2012</v>
       </c>
@@ -26677,8 +27633,14 @@
       <c r="W328">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X328">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Y328">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2012</v>
       </c>
@@ -26757,8 +27719,14 @@
       <c r="W329">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X329">
+        <v>0.54299999999999993</v>
+      </c>
+      <c r="Y329">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2012</v>
       </c>
@@ -26837,8 +27805,14 @@
       <c r="W330">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X330">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Y330">
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2012</v>
       </c>
@@ -26917,8 +27891,14 @@
       <c r="W331">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X331">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Y331">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2012</v>
       </c>
@@ -26997,8 +27977,14 @@
       <c r="W332">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X332">
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="Y332">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2012</v>
       </c>
@@ -27077,8 +28063,14 @@
       <c r="W333">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X333">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Y333">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2012</v>
       </c>
@@ -27157,8 +28149,14 @@
       <c r="W334">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X334">
+        <v>0.113</v>
+      </c>
+      <c r="Y334">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2012</v>
       </c>
@@ -27237,8 +28235,14 @@
       <c r="W335">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X335">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="Y335">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2012</v>
       </c>
@@ -27317,8 +28321,14 @@
       <c r="W336">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X336">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Y336">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2012</v>
       </c>
@@ -27397,8 +28407,14 @@
       <c r="W337">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X337">
+        <v>0.502</v>
+      </c>
+      <c r="Y337">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2013</v>
       </c>
@@ -27477,8 +28493,14 @@
       <c r="W338">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X338">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Y338">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2013</v>
       </c>
@@ -27557,8 +28579,14 @@
       <c r="W339">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X339">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="Y339">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2013</v>
       </c>
@@ -27637,8 +28665,14 @@
       <c r="W340">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X340">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y340">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2013</v>
       </c>
@@ -27717,8 +28751,14 @@
       <c r="W341">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X341">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="Y341">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2013</v>
       </c>
@@ -27797,8 +28837,14 @@
       <c r="W342">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X342">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="Y342">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2013</v>
       </c>
@@ -27877,8 +28923,14 @@
       <c r="W343">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X343">
+        <v>0.153</v>
+      </c>
+      <c r="Y343">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2013</v>
       </c>
@@ -27957,8 +29009,14 @@
       <c r="W344">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X344">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Y344">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2013</v>
       </c>
@@ -28037,8 +29095,14 @@
       <c r="W345">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X345">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="Y345">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2013</v>
       </c>
@@ -28117,8 +29181,14 @@
       <c r="W346">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X346">
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="Y346">
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2013</v>
       </c>
@@ -28197,8 +29267,14 @@
       <c r="W347">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X347">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="Y347">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2013</v>
       </c>
@@ -28277,8 +29353,14 @@
       <c r="W348">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X348">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Y348">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2013</v>
       </c>
@@ -28357,8 +29439,14 @@
       <c r="W349">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X349">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="Y349">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2013</v>
       </c>
@@ -28437,8 +29525,14 @@
       <c r="W350">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X350">
+        <v>0.111</v>
+      </c>
+      <c r="Y350">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2013</v>
       </c>
@@ -28517,8 +29611,14 @@
       <c r="W351">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X351">
+        <v>0.44799999999999995</v>
+      </c>
+      <c r="Y351">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2013</v>
       </c>
@@ -28597,8 +29697,14 @@
       <c r="W352">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X352">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Y352">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2013</v>
       </c>
@@ -28677,8 +29783,14 @@
       <c r="W353">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X353">
+        <v>0.53799999999999992</v>
+      </c>
+      <c r="Y353">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2014</v>
       </c>
@@ -28757,8 +29869,14 @@
       <c r="W354">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X354">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="Y354">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2014</v>
       </c>
@@ -28837,8 +29955,14 @@
       <c r="W355">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X355">
+        <v>0.36200000000000004</v>
+      </c>
+      <c r="Y355">
+        <v>0.11800000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2014</v>
       </c>
@@ -28917,8 +30041,14 @@
       <c r="W356">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X356">
+        <v>0.04</v>
+      </c>
+      <c r="Y356">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2014</v>
       </c>
@@ -28997,8 +30127,14 @@
       <c r="W357">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X357">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Y357">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2014</v>
       </c>
@@ -29077,8 +30213,14 @@
       <c r="W358">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X358">
+        <v>0.115</v>
+      </c>
+      <c r="Y358">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2014</v>
       </c>
@@ -29157,8 +30299,14 @@
       <c r="W359">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X359">
+        <v>0.12</v>
+      </c>
+      <c r="Y359">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2014</v>
       </c>
@@ -29237,8 +30385,14 @@
       <c r="W360">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X360">
+        <v>0.40299999999999997</v>
+      </c>
+      <c r="Y360">
+        <v>0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2014</v>
       </c>
@@ -29317,8 +30471,14 @@
       <c r="W361">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X361">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Y361">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2014</v>
       </c>
@@ -29397,8 +30557,14 @@
       <c r="W362">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X362">
+        <v>0.36</v>
+      </c>
+      <c r="Y362">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2014</v>
       </c>
@@ -29477,8 +30643,14 @@
       <c r="W363">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X363">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Y363">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2014</v>
       </c>
@@ -29557,8 +30729,14 @@
       <c r="W364">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X364">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="Y364">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2014</v>
       </c>
@@ -29637,8 +30815,14 @@
       <c r="W365">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X365">
+        <v>0.1</v>
+      </c>
+      <c r="Y365">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2014</v>
       </c>
@@ -29717,8 +30901,14 @@
       <c r="W366">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X366">
+        <v>0.11800000000000001</v>
+      </c>
+      <c r="Y366">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2014</v>
       </c>
@@ -29797,8 +30987,14 @@
       <c r="W367">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X367">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Y367">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2014</v>
       </c>
@@ -29877,8 +31073,14 @@
       <c r="W368">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X368">
+        <v>0.433</v>
+      </c>
+      <c r="Y368">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2014</v>
       </c>
@@ -29957,8 +31159,14 @@
       <c r="W369">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X369">
+        <v>0.54899999999999993</v>
+      </c>
+      <c r="Y369">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="370" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2015</v>
       </c>
@@ -30037,8 +31245,14 @@
       <c r="W370">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X370">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="Y370">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2015</v>
       </c>
@@ -30117,8 +31331,14 @@
       <c r="W371">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X371">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="Y371">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="372" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2015</v>
       </c>
@@ -30197,8 +31417,14 @@
       <c r="W372">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X372">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Y372">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2015</v>
       </c>
@@ -30277,8 +31503,14 @@
       <c r="W373">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X373">
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="Y373">
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2015</v>
       </c>
@@ -30357,8 +31589,14 @@
       <c r="W374">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X374">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="Y374">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2015</v>
       </c>
@@ -30437,8 +31675,14 @@
       <c r="W375">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X375">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Y375">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2015</v>
       </c>
@@ -30517,8 +31761,14 @@
       <c r="W376">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X376">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="Y376">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2015</v>
       </c>
@@ -30597,8 +31847,14 @@
       <c r="W377">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X377">
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="Y377">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2015</v>
       </c>
@@ -30677,8 +31933,14 @@
       <c r="W378">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X378">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="Y378">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2015</v>
       </c>
@@ -30757,8 +32019,14 @@
       <c r="W379">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X379">
+        <v>0.111</v>
+      </c>
+      <c r="Y379">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2015</v>
       </c>
@@ -30837,8 +32105,14 @@
       <c r="W380">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X380">
+        <v>0.45399999999999996</v>
+      </c>
+      <c r="Y380">
+        <v>8.900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2015</v>
       </c>
@@ -30917,8 +32191,14 @@
       <c r="W381">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X381">
+        <v>0.111</v>
+      </c>
+      <c r="Y381">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2015</v>
       </c>
@@ -30997,8 +32277,14 @@
       <c r="W382">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X382">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y382">
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2015</v>
       </c>
@@ -31077,8 +32363,14 @@
       <c r="W383">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X383">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="Y383">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2015</v>
       </c>
@@ -31157,8 +32449,14 @@
       <c r="W384">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X384">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="Y384">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2015</v>
       </c>
@@ -31237,8 +32535,14 @@
       <c r="W385">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X385">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="Y385">
+        <v>0.11699999999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2016</v>
       </c>
@@ -31318,8 +32622,14 @@
       <c r="W386">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X386">
+        <v>0.253</v>
+      </c>
+      <c r="Y386">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2016</v>
       </c>
@@ -31342,7 +32652,7 @@
         <v>0.48</v>
       </c>
       <c r="H387">
-        <f t="shared" ref="H387:H415" si="66">(39.14+34.05+33.03)/3</f>
+        <f t="shared" ref="H387:H401" si="66">(39.14+34.05+33.03)/3</f>
         <v>35.406666666666666</v>
       </c>
       <c r="I387">
@@ -31399,8 +32709,14 @@
       <c r="W387">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X387">
+        <v>0.433</v>
+      </c>
+      <c r="Y387">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2016</v>
       </c>
@@ -31480,8 +32796,14 @@
       <c r="W388">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X388">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y388">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2016</v>
       </c>
@@ -31561,8 +32883,14 @@
       <c r="W389">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X389">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Y389">
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2016</v>
       </c>
@@ -31642,8 +32970,14 @@
       <c r="W390">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X390">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="Y390">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2016</v>
       </c>
@@ -31723,8 +33057,14 @@
       <c r="W391">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X391">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y391">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2016</v>
       </c>
@@ -31804,8 +33144,14 @@
       <c r="W392">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X392">
+        <v>0.373</v>
+      </c>
+      <c r="Y392">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2016</v>
       </c>
@@ -31885,8 +33231,14 @@
       <c r="W393">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X393">
+        <v>0.66799999999999993</v>
+      </c>
+      <c r="Y393">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2016</v>
       </c>
@@ -31966,8 +33318,14 @@
       <c r="W394">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X394">
+        <v>0.40299999999999997</v>
+      </c>
+      <c r="Y394">
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2016</v>
       </c>
@@ -32047,8 +33405,14 @@
       <c r="W395">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X395">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="Y395">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2016</v>
       </c>
@@ -32128,8 +33492,14 @@
       <c r="W396">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X396">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="Y396">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2016</v>
       </c>
@@ -32209,8 +33579,14 @@
       <c r="W397">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X397">
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="Y397">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2016</v>
       </c>
@@ -32290,8 +33666,14 @@
       <c r="W398">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X398">
+        <v>0.128</v>
+      </c>
+      <c r="Y398">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2016</v>
       </c>
@@ -32371,8 +33753,14 @@
       <c r="W399">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X399">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="Y399">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2016</v>
       </c>
@@ -32452,8 +33840,14 @@
       <c r="W400">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X400">
+        <v>0.54799999999999993</v>
+      </c>
+      <c r="Y400">
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2016</v>
       </c>
@@ -32533,8 +33927,14 @@
       <c r="W401">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X401">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="Y401">
+        <v>0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2017</v>
       </c>
@@ -32613,8 +34013,14 @@
       <c r="W402">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X402">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Y402">
+        <v>8.199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2017</v>
       </c>
@@ -32693,8 +34099,14 @@
       <c r="W403">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X403">
+        <v>0.441</v>
+      </c>
+      <c r="Y403">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2017</v>
       </c>
@@ -32773,8 +34185,14 @@
       <c r="W404">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X404">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Y404">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2017</v>
       </c>
@@ -32853,8 +34271,14 @@
       <c r="W405">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X405">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Y405">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2017</v>
       </c>
@@ -32933,8 +34357,14 @@
       <c r="W406">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X406">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Y406">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2017</v>
       </c>
@@ -33013,8 +34443,14 @@
       <c r="W407">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X407">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Y407">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2017</v>
       </c>
@@ -33093,8 +34529,14 @@
       <c r="W408">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X408">
+        <v>0.433</v>
+      </c>
+      <c r="Y408">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2017</v>
       </c>
@@ -33173,8 +34615,14 @@
       <c r="W409">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X409">
+        <v>0.71900000000000008</v>
+      </c>
+      <c r="Y409">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2017</v>
       </c>
@@ -33253,8 +34701,14 @@
       <c r="W410">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X410">
+        <v>0.45299999999999996</v>
+      </c>
+      <c r="Y410">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2017</v>
       </c>
@@ -33333,8 +34787,14 @@
       <c r="W411">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X411">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="Y411">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2017</v>
       </c>
@@ -33413,8 +34873,14 @@
       <c r="W412">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X412">
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="Y412">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2017</v>
       </c>
@@ -33493,8 +34959,14 @@
       <c r="W413">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X413">
+        <v>0.192</v>
+      </c>
+      <c r="Y413">
+        <v>5.4000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2017</v>
       </c>
@@ -33573,8 +35045,14 @@
       <c r="W414">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X414">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y414">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2017</v>
       </c>
@@ -33653,8 +35131,14 @@
       <c r="W415">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X415">
+        <v>0.53</v>
+      </c>
+      <c r="Y415">
+        <v>7.400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2017</v>
       </c>
@@ -33733,8 +35217,14 @@
       <c r="W416">
         <v>0.129</v>
       </c>
-    </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X416">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="Y416">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2017</v>
       </c>
@@ -33813,8 +35303,14 @@
       <c r="W417">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X417">
+        <v>0.59</v>
+      </c>
+      <c r="Y417">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="418" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2018</v>
       </c>
@@ -33895,7 +35391,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2018</v>
       </c>
@@ -33918,7 +35414,7 @@
         <v>0.3</v>
       </c>
       <c r="H419">
-        <f t="shared" ref="H419:H445" si="73">(24.43*(1/12)+24.43*(1/12)+24.43*(1/12)+18.5*(1/12)+18.32*(1/12)+18.13*(1/12)+17.95*(1/12)+17.77*(1/12)+17.59*(1/12)+17.42*(1/12)+16.98*(1/12)+16.56*(1/12))</f>
+        <f t="shared" ref="H419:H432" si="73">(24.43*(1/12)+24.43*(1/12)+24.43*(1/12)+18.5*(1/12)+18.32*(1/12)+18.13*(1/12)+17.95*(1/12)+17.77*(1/12)+17.59*(1/12)+17.42*(1/12)+16.98*(1/12)+16.56*(1/12))</f>
         <v>19.375833333333333</v>
       </c>
       <c r="I419">
@@ -33976,7 +35472,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2018</v>
       </c>
@@ -34057,7 +35553,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2018</v>
       </c>
@@ -34138,7 +35634,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2018</v>
       </c>
@@ -34219,7 +35715,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2018</v>
       </c>
@@ -34300,7 +35796,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2018</v>
       </c>
@@ -34381,7 +35877,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2018</v>
       </c>
@@ -34462,7 +35958,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2018</v>
       </c>
@@ -34543,7 +36039,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2018</v>
       </c>
@@ -34624,7 +36120,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2018</v>
       </c>
@@ -34705,7 +36201,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2018</v>
       </c>
@@ -34786,7 +36282,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2018</v>
       </c>
@@ -34867,7 +36363,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2018</v>
       </c>
@@ -34948,7 +36444,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2018</v>
       </c>
@@ -35214,7 +36710,7 @@
         <v>0.26</v>
       </c>
       <c r="H435">
-        <f t="shared" ref="H435:H463" si="74">(16.14*(1/12)+15.79*(1/12)+15.44*(1/12)+15.1*(1/12)+14.83*(1/12)+14.56*(1/12)+14.3*(1/12)+14.04*(1/12)+13.79*(1/12)+13.54*(1/12)+13.35*(1/12)+13.17*(1/12))</f>
+        <f t="shared" ref="H435:H449" si="74">(16.14*(1/12)+15.79*(1/12)+15.44*(1/12)+15.1*(1/12)+14.83*(1/12)+14.56*(1/12)+14.3*(1/12)+14.04*(1/12)+13.79*(1/12)+13.54*(1/12)+13.35*(1/12)+13.17*(1/12))</f>
         <v>14.504166666666666</v>
       </c>
       <c r="I435">
@@ -36474,7 +37970,7 @@
         <v>7408370.2630000003</v>
       </c>
       <c r="H451">
-        <f t="shared" ref="H451:H477" si="76">(12.98*(1/12)+12.85*(1/12)+12.72*(1/12)+12.6*(1/12)+12.47*(1/12)+12.34*(1/12)+12.22*(1/12)+12.8*(1/12)+12.74*(1/12)+12.7*(1/12)+12.67*(1/12)+12.64*(1/12))</f>
+        <f t="shared" ref="H451:H464" si="76">(12.98*(1/12)+12.85*(1/12)+12.72*(1/12)+12.6*(1/12)+12.47*(1/12)+12.34*(1/12)+12.22*(1/12)+12.8*(1/12)+12.74*(1/12)+12.7*(1/12)+12.67*(1/12)+12.64*(1/12))</f>
         <v>12.644166666666665</v>
       </c>
       <c r="J451" s="1">
